--- a/templates/register.xlsx
+++ b/templates/register.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>РЕЕСТР</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Диагноз</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,32 +233,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,99 +564,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="11">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
